--- a/admin/student.xlsx
+++ b/admin/student.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\phpStudyLite\WWW\jiaowu\admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy_class\WWW\jiaowu\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A509B9B-AA01-4D4E-8F74-3C21CAF8266D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC159E93-27C3-433B-A450-B63A770BC7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="2490" windowWidth="21255" windowHeight="18030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="732" windowWidth="15720" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>吴亦凡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>林嘉敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王一博</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,19 +393,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -420,103 +416,92 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12345666</v>
+        <v>20181000</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12345667</v>
+        <v>20181001</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>12345668</v>
+        <v>20181002</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12345669</v>
+        <v>20181003</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>12345661</v>
+        <v>20181004</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>12345662</v>
+        <v>20181005</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>12345663</v>
+        <v>20181006</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>12345664</v>
+        <v>20181007</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>12345665</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
